--- a/Definitions/r_Definitions_Hygieia.xlsx
+++ b/Definitions/r_Definitions_Hygieia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Topics</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>Hygieia</t>
+  </si>
+  <si>
+    <t>Hygieia github link</t>
+  </si>
+  <si>
+    <t>https://github.com/capitalone/Hygieia</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -142,6 +148,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -501,9 +510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,18 +530,21 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4"/>
@@ -541,14 +553,14 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -558,10 +570,10 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10"/>
@@ -587,11 +599,11 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
@@ -615,11 +627,11 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -634,6 +646,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Definitions!A2" display="Up"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
